--- a/1_Result_Tables/4_ifoCAST_evaluations_full_since_2021/ifoCAst_error_tables_full_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full_since_2021/ifoCAst_error_tables_full_latest_since_2021.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.07361776719825693</v>
+        <v>-0.07713289984429851</v>
       </c>
       <c r="C2">
-        <v>0.5155236744027857</v>
+        <v>0.5125742293804644</v>
       </c>
       <c r="D2">
-        <v>0.5103538750155782</v>
+        <v>0.5100403079960522</v>
       </c>
       <c r="E2">
-        <v>0.7143905619586377</v>
+        <v>0.714171063538738</v>
       </c>
       <c r="F2">
-        <v>0.7201258031234696</v>
+        <v>0.7195240788711913</v>
       </c>
       <c r="G2">
         <v>38</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.152654832087355</v>
+        <v>0.1511691911167132</v>
       </c>
       <c r="C3">
-        <v>0.7103658519368529</v>
+        <v>0.6823290450278029</v>
       </c>
       <c r="D3">
-        <v>0.8504676505890556</v>
+        <v>0.8082812941544923</v>
       </c>
       <c r="E3">
-        <v>0.9222080299959742</v>
+        <v>0.8990446563739158</v>
       </c>
       <c r="F3">
-        <v>0.9134659154732869</v>
+        <v>0.889929442648896</v>
       </c>
       <c r="G3">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05988209309120299</v>
+        <v>0.09872457269350857</v>
       </c>
       <c r="C4">
-        <v>0.5611408911566774</v>
+        <v>0.5659997234325101</v>
       </c>
       <c r="D4">
-        <v>0.4680261615636492</v>
+        <v>0.4634181017742184</v>
       </c>
       <c r="E4">
-        <v>0.6841243757999339</v>
+        <v>0.6807481926338244</v>
       </c>
       <c r="F4">
-        <v>0.6877797923187146</v>
+        <v>0.6793331170920168</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
